--- a/Data/Original_Excel/adaptation_accepted.xlsx
+++ b/Data/Original_Excel/adaptation_accepted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rclar\Dropbox\Pinsky_Lab\Funding\Temporal_Genomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1511" documentId="8_{9F5C2716-DD74-40DC-A66E-5CDD60F514A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753075D9-A883-4448-B137-86657E74A009}"/>
+  <xr:revisionPtr revIDLastSave="1525" documentId="8_{9F5C2716-DD74-40DC-A66E-5CDD60F514A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46317738-E5B1-488E-9B23-9555ECA33810}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19156" windowHeight="13875" xr2:uid="{77E38236-1558-4729-B7B2-AB6A226D2C08}"/>
   </bookViews>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="957">
   <si>
     <t>Article_Number</t>
   </si>
@@ -564,7 +565,7 @@
     <t>Western Coast of Greenland</t>
   </si>
   <si>
-    <t>2009.12.31-2001.01.01, 1989.12.31-1960.01.01, 1969.12.31-1950.01.01</t>
+    <t>2006.01.01,1970.01.01,1952.01.01</t>
   </si>
   <si>
     <t>15, 54, 77</t>
@@ -582,6 +583,9 @@
     <t>BioMark HD System)</t>
   </si>
   <si>
+    <t>RC: 2006.01.01 = midpoint between 2003 &amp; 2010, 1970.01.01 = midpoint between 1960 &amp; 1980, 1952.01.01 = midpoint between 1946 &amp; 1959</t>
+  </si>
+  <si>
     <t>Coexistence mechanisms and the paradox of the plankton: quantifying selection from noisy data</t>
   </si>
   <si>
@@ -1443,7 +1447,7 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>2000.01.01-2003.01.01,2004.04.20</t>
+    <t>2001.06.01,2004.04.20</t>
   </si>
   <si>
     <t>blood</t>
@@ -1452,7 +1456,7 @@
     <t>Sanger</t>
   </si>
   <si>
-    <t>RC: moved to adaptation bc talks mostly about selection</t>
+    <t>RC: moved to adaptation bc talks mostly about selection; 2001.06.01 midpoint of 2000 &amp; 2003</t>
   </si>
   <si>
     <t>High genomic diversity and candidate genes under selection associated with range expansion in eastern coyote (Canis latrans) populations</t>
@@ -3007,7 +3011,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3024,6 +3028,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3049,7 +3059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3124,15 +3134,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3451,8 +3454,8 @@
   <dimension ref="A1:AW137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="V30" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="W63" sqref="W63"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AN22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -3671,86 +3674,86 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="38" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="38">
+    <row r="3" spans="1:40" ht="15.95" customHeight="1">
+      <c r="A3">
         <v>2490</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3">
         <v>2006</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="38" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AA3" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AC3" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="38" t="s">
+      <c r="AD3" t="s">
         <v>67</v>
       </c>
-      <c r="AE3" s="38" t="s">
+      <c r="AE3" t="s">
         <v>68</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AF3" t="s">
         <v>69</v>
       </c>
-      <c r="AG3" s="38" t="s">
+      <c r="AG3" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="38" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4573,7 +4576,7 @@
       <c r="X12" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="Y12" s="39" t="s">
         <v>175</v>
       </c>
       <c r="Z12" s="17" t="s">
@@ -4611,6 +4614,9 @@
       </c>
       <c r="AM12" s="16" t="s">
         <v>131</v>
+      </c>
+      <c r="AN12" s="16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.95" customHeight="1">
@@ -4618,31 +4624,31 @@
         <v>4645</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G13">
         <v>2010</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L13" t="s">
         <v>48</v>
@@ -4651,7 +4657,7 @@
         <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:40" s="16" customFormat="1" ht="15.95" customHeight="1">
@@ -4659,31 +4665,31 @@
         <v>1070</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G14" s="16">
         <v>2013</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>48</v>
@@ -4701,7 +4707,7 @@
         <v>87</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T14" s="16" t="s">
         <v>89</v>
@@ -4716,13 +4722,13 @@
         <v>125</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA14" s="17" t="s">
         <v>177</v>
@@ -4761,7 +4767,7 @@
         <v>131</v>
       </c>
       <c r="AN14" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="15.95" customHeight="1">
@@ -4770,28 +4776,28 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G15" s="8">
         <v>2010</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>47</v>
@@ -4826,25 +4832,25 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G16" s="15">
         <v>2014</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>58</v>
@@ -4868,7 +4874,7 @@
         <v>87</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
@@ -4885,16 +4891,16 @@
         <v>62</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y16" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB16" s="15" t="s">
         <v>113</v>
@@ -4915,19 +4921,19 @@
         <v>165</v>
       </c>
       <c r="AJ16" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK16" s="16" t="s">
         <v>99</v>
       </c>
       <c r="AL16" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM16" s="16" t="s">
         <v>99</v>
       </c>
       <c r="AN16" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="15.95" customHeight="1">
@@ -4935,22 +4941,22 @@
         <v>7864</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G17">
         <v>2020</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
@@ -4959,7 +4965,7 @@
         <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L17" t="s">
         <v>48</v>
@@ -4976,31 +4982,31 @@
         <v>2122</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G18" s="16">
         <v>2012</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>58</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>48</v>
@@ -5027,19 +5033,19 @@
         <v>91</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y18" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z18" s="16" t="s">
         <v>99</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AB18" s="16" t="s">
         <v>113</v>
@@ -5051,16 +5057,16 @@
         <v>68</v>
       </c>
       <c r="AG18" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH18" s="16" t="s">
         <v>97</v>
       </c>
       <c r="AI18" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AJ18" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK18" s="16" t="s">
         <v>116</v>
@@ -5072,7 +5078,7 @@
         <v>131</v>
       </c>
       <c r="AN18" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="15.95" customHeight="1">
@@ -5080,31 +5086,31 @@
         <v>2176</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G19">
         <v>2012</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J19" t="s">
         <v>151</v>
       </c>
       <c r="K19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s">
         <v>48</v>
@@ -5124,31 +5130,31 @@
         <v>3868</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G20">
         <v>2012</v>
       </c>
       <c r="H20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J20" t="s">
         <v>151</v>
       </c>
       <c r="K20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
         <v>48</v>
@@ -5165,22 +5171,22 @@
         <v>5074</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G21">
         <v>2019</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I21" t="s">
         <v>107</v>
@@ -5189,7 +5195,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
         <v>84</v>
@@ -5204,7 +5210,7 @@
         <v>99</v>
       </c>
       <c r="AO21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:41" s="16" customFormat="1" ht="15.95" customHeight="1">
@@ -5212,31 +5218,31 @@
         <v>8728</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G22" s="16">
         <v>2010</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>84</v>
@@ -5260,19 +5266,19 @@
         <v>138</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA22" s="16">
         <v>2190</v>
@@ -5290,7 +5296,7 @@
         <v>70</v>
       </c>
       <c r="AH22" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AI22" s="16" t="s">
         <v>165</v>
@@ -5299,7 +5305,7 @@
         <v>166</v>
       </c>
       <c r="AK22" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL22" s="16" t="s">
         <v>99</v>
@@ -5308,10 +5314,10 @@
         <v>131</v>
       </c>
       <c r="AN22" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO22" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="16" customFormat="1" ht="15.95" customHeight="1">
@@ -5319,31 +5325,31 @@
         <v>11158</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G23" s="16">
         <v>2006</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>151</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" s="16" t="s">
         <v>84</v>
@@ -5370,16 +5376,16 @@
         <v>91</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA23" s="16">
         <v>621</v>
@@ -5394,7 +5400,7 @@
         <v>69</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH23" s="16" t="s">
         <v>143</v>
@@ -5403,10 +5409,10 @@
         <v>165</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL23" s="16" t="s">
         <v>99</v>
@@ -5415,7 +5421,7 @@
         <v>131</v>
       </c>
       <c r="AN23" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:41" s="16" customFormat="1" ht="15.95" customHeight="1">
@@ -5423,25 +5429,25 @@
         <v>63</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G24" s="16">
         <v>2020</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>46</v>
@@ -5465,7 +5471,7 @@
         <v>87</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T24" s="16" t="s">
         <v>89</v>
@@ -5474,22 +5480,22 @@
         <v>138</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>65</v>
@@ -5498,13 +5504,13 @@
         <v>66</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH24" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AI24" s="16" t="s">
         <v>165</v>
@@ -5513,16 +5519,16 @@
         <v>129</v>
       </c>
       <c r="AK24" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL24" s="16" t="s">
         <v>117</v>
       </c>
       <c r="AM24" s="16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO24" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:41" ht="15.95" customHeight="1">
@@ -5530,22 +5536,22 @@
         <v>5625</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G25">
         <v>2020</v>
       </c>
       <c r="H25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I25" t="s">
         <v>45</v>
@@ -5566,7 +5572,7 @@
         <v>50</v>
       </c>
       <c r="AN25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="15.95" customHeight="1">
@@ -5574,31 +5580,31 @@
         <v>1291</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G26">
         <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J26" t="s">
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L26" t="s">
         <v>84</v>
@@ -5607,19 +5613,19 @@
         <v>49</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U26" t="s">
         <v>138</v>
       </c>
       <c r="V26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W26" t="s">
         <v>125</v>
       </c>
       <c r="X26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB26" t="s">
         <v>65</v>
@@ -5631,10 +5637,10 @@
         <v>69</v>
       </c>
       <c r="AN26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="16" customFormat="1" ht="15.95" customHeight="1">
@@ -5642,31 +5648,31 @@
         <v>6133</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G27" s="16">
         <v>2018</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>58</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>84</v>
@@ -5690,19 +5696,19 @@
         <v>138</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA27" s="16">
         <v>365</v>
@@ -5720,7 +5726,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AI27" s="16" t="s">
         <v>165</v>
@@ -5738,10 +5744,10 @@
         <v>131</v>
       </c>
       <c r="AN27" s="16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO27" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:41" s="34" customFormat="1" ht="15.95" customHeight="1">
@@ -5749,31 +5755,31 @@
         <v>6781</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G28" s="34">
         <v>2016</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J28" s="34" t="s">
         <v>58</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L28" s="34" t="s">
         <v>84</v>
@@ -5794,16 +5800,16 @@
         <v>158</v>
       </c>
       <c r="W28" s="34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y28" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z28" s="34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA28" s="34">
         <v>7</v>
@@ -5815,7 +5821,7 @@
         <v>114</v>
       </c>
       <c r="AD28" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE28" s="34" t="s">
         <v>68</v>
@@ -5842,10 +5848,10 @@
         <v>99</v>
       </c>
       <c r="AN28" s="34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO28" s="35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="15.95" customHeight="1">
@@ -5853,31 +5859,31 @@
         <v>9859</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G29">
         <v>2017</v>
       </c>
       <c r="H29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L29" t="s">
         <v>84</v>
@@ -5889,7 +5895,7 @@
         <v>50</v>
       </c>
       <c r="AO29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:41" ht="15.95" customHeight="1">
@@ -5897,28 +5903,28 @@
         <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G30">
         <v>2015</v>
       </c>
       <c r="H30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I30" t="s">
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s">
         <v>47</v>
@@ -5933,7 +5939,7 @@
         <v>50</v>
       </c>
       <c r="AO30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:41" ht="15.95" customHeight="1">
@@ -5941,25 +5947,25 @@
         <v>2670</v>
       </c>
       <c r="C31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G31">
         <v>2011</v>
       </c>
       <c r="H31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J31" t="s">
         <v>151</v>
@@ -5977,7 +5983,7 @@
         <v>50</v>
       </c>
       <c r="AO31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="15.95" customHeight="1">
@@ -5985,22 +5991,22 @@
         <v>2679</v>
       </c>
       <c r="C32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D32" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G32">
         <v>2020</v>
       </c>
       <c r="H32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I32" t="s">
         <v>45</v>
@@ -6021,7 +6027,7 @@
         <v>50</v>
       </c>
       <c r="AO32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:49" ht="15.95" customHeight="1">
@@ -6029,31 +6035,31 @@
         <v>991</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G33">
         <v>2012</v>
       </c>
       <c r="H33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J33" t="s">
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s">
         <v>84</v>
@@ -6062,10 +6068,10 @@
         <v>49</v>
       </c>
       <c r="N33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:49" s="16" customFormat="1" ht="15.95" customHeight="1">
@@ -6073,31 +6079,31 @@
         <v>8911</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G34" s="16">
         <v>2013</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>84</v>
@@ -6121,19 +6127,19 @@
         <v>108</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="X34" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA34" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AB34" s="16" t="s">
         <v>113</v>
@@ -6148,16 +6154,16 @@
         <v>70</v>
       </c>
       <c r="AH34" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AI34" s="16" t="s">
         <v>115</v>
       </c>
       <c r="AJ34" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK34" s="16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL34" s="16" t="s">
         <v>99</v>
@@ -6166,7 +6172,7 @@
         <v>131</v>
       </c>
       <c r="AN34" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:49" ht="15.95" customHeight="1">
@@ -6174,31 +6180,31 @@
         <v>10990</v>
       </c>
       <c r="C35" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G35">
         <v>2015</v>
       </c>
       <c r="H35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J35" t="s">
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s">
         <v>84</v>
@@ -6207,7 +6213,7 @@
         <v>49</v>
       </c>
       <c r="N35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U35" t="s">
         <v>138</v>
@@ -6216,13 +6222,13 @@
         <v>158</v>
       </c>
       <c r="W35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="X35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z35">
         <v>6413</v>
@@ -6243,7 +6249,7 @@
         <v>70</v>
       </c>
       <c r="AO35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:49" ht="15.95" customHeight="1">
@@ -6251,22 +6257,22 @@
         <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G36">
         <v>2012</v>
       </c>
       <c r="H36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I36" t="s">
         <v>45</v>
@@ -6275,7 +6281,7 @@
         <v>124</v>
       </c>
       <c r="K36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L36" t="s">
         <v>84</v>
@@ -6287,7 +6293,7 @@
         <v>50</v>
       </c>
       <c r="AO36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:49" ht="15.95" customHeight="1">
@@ -6295,31 +6301,31 @@
         <v>794</v>
       </c>
       <c r="C37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E37" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G37">
         <v>2014</v>
       </c>
       <c r="H37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J37" t="s">
         <v>151</v>
       </c>
       <c r="K37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L37" t="s">
         <v>84</v>
@@ -6331,7 +6337,7 @@
         <v>50</v>
       </c>
       <c r="AO37" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:49" ht="15.95" customHeight="1">
@@ -6339,31 +6345,31 @@
         <v>2612</v>
       </c>
       <c r="C38" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D38" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G38">
         <v>2006</v>
       </c>
       <c r="H38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J38" t="s">
         <v>46</v>
       </c>
       <c r="K38" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L38" t="s">
         <v>84</v>
@@ -6375,142 +6381,142 @@
         <v>50</v>
       </c>
       <c r="AO38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49" s="42" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A39" s="42">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" ht="15.95" customHeight="1">
+      <c r="A39">
         <v>32</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D39" s="42" t="s">
+      <c r="C39" t="s">
         <v>414</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="D39" t="s">
         <v>415</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="E39" t="s">
         <v>416</v>
       </c>
-      <c r="G39" s="42">
+      <c r="F39" t="s">
+        <v>417</v>
+      </c>
+      <c r="G39">
         <v>2016</v>
       </c>
-      <c r="H39" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="I39" s="42" t="s">
+      <c r="H39" t="s">
         <v>418</v>
       </c>
-      <c r="J39" s="42" t="s">
+      <c r="I39" t="s">
+        <v>419</v>
+      </c>
+      <c r="J39" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="L39" s="42" t="s">
+      <c r="K39" t="s">
+        <v>420</v>
+      </c>
+      <c r="L39" t="s">
         <v>84</v>
       </c>
-      <c r="M39" s="42" t="s">
+      <c r="M39" t="s">
         <v>49</v>
       </c>
-      <c r="N39" s="42" t="s">
+      <c r="N39" t="s">
         <v>59</v>
       </c>
-      <c r="U39" s="42" t="s">
+      <c r="U39" t="s">
         <v>138</v>
       </c>
-      <c r="V39" s="42" t="s">
+      <c r="V39" t="s">
         <v>158</v>
       </c>
-      <c r="W39" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y39" s="42" t="s">
+      <c r="W39" t="s">
         <v>421</v>
       </c>
-      <c r="AB39" s="42" t="s">
+      <c r="Y39" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB39" t="s">
         <v>65</v>
       </c>
-      <c r="AC39" s="42" t="s">
+      <c r="AC39" t="s">
         <v>114</v>
       </c>
-      <c r="AD39" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE39" s="42" t="s">
+      <c r="AD39" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE39" t="s">
         <v>68</v>
       </c>
-      <c r="AG39" s="42" t="s">
+      <c r="AG39" t="s">
         <v>70</v>
       </c>
-      <c r="AN39" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="AO39" s="42" t="s">
+      <c r="AN39" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="40" spans="1:49" s="42" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A40" s="41">
+      <c r="AO39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" ht="15.95" customHeight="1">
+      <c r="A40" s="8">
         <v>4011</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="D40" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="E40" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="G40" s="41">
+      <c r="F40" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G40" s="8">
         <v>2014</v>
       </c>
-      <c r="H40" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="I40" s="41" t="s">
+      <c r="H40" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="J40" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="K40" s="41" t="s">
+      <c r="I40" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L40" s="41" t="s">
+      <c r="L40" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="41" t="s">
+      <c r="M40" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N40" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AN40" s="41" t="s">
+      <c r="N40" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="AO40" s="42" t="s">
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AN40" s="8" t="s">
         <v>432</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:49" ht="15.95" customHeight="1">
@@ -6519,31 +6525,31 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G41" s="13">
         <v>2015</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>46</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L41" s="13" t="s">
         <v>84</v>
@@ -6570,7 +6576,7 @@
       <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
       <c r="AO41" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:49" ht="15.95" customHeight="1">
@@ -6579,22 +6585,22 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G42" s="13">
         <v>2018</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>107</v>
@@ -6630,90 +6636,90 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AO42" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49" s="42" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A43" s="43">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" ht="15.95" customHeight="1">
+      <c r="A43" s="13">
         <v>10145</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="D43" s="43" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="D43" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="E43" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="G43" s="43">
+      <c r="F43" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G43" s="13">
         <v>2008</v>
       </c>
-      <c r="H43" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="I43" s="43" t="s">
+      <c r="H43" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="43" t="s">
+      <c r="J43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="L43" s="43" t="s">
+      <c r="K43" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="M43" s="43" t="s">
+      <c r="M43" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N43" s="43" t="s">
+      <c r="N43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="42" t="s">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" t="s">
         <v>138</v>
       </c>
-      <c r="V43" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="W43" s="43" t="s">
-        <v>451</v>
-      </c>
-      <c r="X43" s="44" t="s">
+      <c r="V43" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="W43" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="Y43" s="43" t="s">
+      <c r="X43" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="Z43" s="43">
+      <c r="Y43" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z43" s="13">
         <v>464</v>
       </c>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43" t="s">
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AC43" s="43" t="s">
+      <c r="AC43" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AD43" s="43"/>
-      <c r="AH43" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="AM43" s="42" t="s">
+      <c r="AD43" s="13"/>
+      <c r="AH43" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM43" t="s">
         <v>131</v>
       </c>
-      <c r="AO43" s="42" t="s">
-        <v>454</v>
+      <c r="AO43" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:49" ht="15.95" customHeight="1">
@@ -6722,22 +6728,22 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G44" s="13">
         <v>2016</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>83</v>
@@ -6746,7 +6752,7 @@
         <v>58</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>84</v>
@@ -6774,7 +6780,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
       <c r="AO44" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:49" s="28" customFormat="1" ht="15.75" customHeight="1">
@@ -6783,34 +6789,34 @@
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G45" s="26">
         <v>2012</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J45" s="26" t="s">
         <v>151</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L45" s="26" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M45" s="26" t="s">
         <v>85</v>
@@ -6825,7 +6831,7 @@
         <v>87</v>
       </c>
       <c r="Q45" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
@@ -6834,16 +6840,16 @@
         <v>51</v>
       </c>
       <c r="V45" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W45" s="26" t="s">
         <v>109</v>
       </c>
       <c r="X45" s="26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y45" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z45" s="27">
         <v>168127</v>
@@ -6863,13 +6869,13 @@
       <c r="AE45" s="26"/>
       <c r="AF45" s="26"/>
       <c r="AG45" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH45" s="26" t="s">
         <v>143</v>
       </c>
       <c r="AI45" s="26" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AJ45" s="26" t="s">
         <v>99</v>
@@ -6878,13 +6884,13 @@
         <v>116</v>
       </c>
       <c r="AL45" s="26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM45" s="26" t="s">
         <v>131</v>
       </c>
       <c r="AN45" s="26" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:49" s="10" customFormat="1" ht="15.75" customHeight="1">
@@ -6893,22 +6899,22 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G46" s="9">
         <v>2018</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>107</v>
@@ -6917,7 +6923,7 @@
         <v>46</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>48</v>
@@ -6954,7 +6960,7 @@
       <c r="AL46" s="9"/>
       <c r="AM46" s="9"/>
       <c r="AN46" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:49" s="10" customFormat="1" ht="15.75" customHeight="1">
@@ -6963,22 +6969,22 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G47" s="9">
         <v>2016</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>83</v>
@@ -7012,7 +7018,7 @@
       <c r="Z47" s="13"/>
       <c r="AB47"/>
       <c r="AN47" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:49" s="10" customFormat="1" ht="15.75" customHeight="1">
@@ -7021,22 +7027,22 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G48" s="13">
         <v>2016</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>45</v>
@@ -7045,7 +7051,7 @@
         <v>46</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L48" s="13" t="s">
         <v>84</v>
@@ -7054,7 +7060,7 @@
         <v>49</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -7082,7 +7088,7 @@
       <c r="AL48" s="13"/>
       <c r="AM48" s="13"/>
       <c r="AN48" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
@@ -7100,31 +7106,31 @@
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G49" s="18">
         <v>2002</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J49" s="18" t="s">
         <v>58</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>84</v>
@@ -7142,10 +7148,10 @@
         <v>87</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S49" s="18"/>
       <c r="T49" s="18" t="s">
@@ -7155,22 +7161,22 @@
         <v>60</v>
       </c>
       <c r="V49" s="18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="X49" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z49" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA49" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AB49" s="18" t="s">
         <v>113</v>
@@ -7182,14 +7188,14 @@
         <v>68</v>
       </c>
       <c r="AE49" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF49" s="18"/>
       <c r="AG49" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH49" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AI49" s="18" t="s">
         <v>99</v>
@@ -7198,16 +7204,16 @@
         <v>99</v>
       </c>
       <c r="AK49" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL49" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM49" s="18" t="s">
         <v>131</v>
       </c>
       <c r="AN49" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO49" s="18"/>
       <c r="AP49" s="18"/>
@@ -7225,31 +7231,31 @@
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G50" s="18">
         <v>2019</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J50" s="18" t="s">
         <v>58</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>84</v>
@@ -7276,19 +7282,19 @@
         <v>90</v>
       </c>
       <c r="V50" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="W50" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="X50" s="18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Y50" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z50" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA50" s="18">
         <v>90</v>
@@ -7305,10 +7311,10 @@
       <c r="AE50" s="18"/>
       <c r="AF50" s="18"/>
       <c r="AG50" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH50" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AI50" s="18" t="s">
         <v>99</v>
@@ -7326,7 +7332,7 @@
         <v>131</v>
       </c>
       <c r="AN50" s="18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO50" s="18"/>
       <c r="AP50" s="18"/>
@@ -7344,22 +7350,22 @@
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G51" s="18">
         <v>2013</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I51" s="18" t="s">
         <v>45</v>
@@ -7368,7 +7374,7 @@
         <v>46</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L51" s="26" t="s">
         <v>84</v>
@@ -7389,7 +7395,7 @@
         <v>88</v>
       </c>
       <c r="R51" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S51" s="18"/>
       <c r="T51" s="18" t="s">
@@ -7405,13 +7411,13 @@
         <v>125</v>
       </c>
       <c r="X51" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y51" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z51" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA51" s="18">
         <v>730</v>
@@ -7434,22 +7440,22 @@
         <v>97</v>
       </c>
       <c r="AI51" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ51" s="18" t="s">
         <v>99</v>
       </c>
       <c r="AK51" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL51" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM51" s="18" t="s">
         <v>99</v>
       </c>
       <c r="AN51" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO51" s="18"/>
       <c r="AP51" s="18"/>
@@ -7466,31 +7472,31 @@
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G52" s="29">
         <v>2016</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J52" s="29" t="s">
         <v>46</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L52" s="29" t="s">
         <v>84</v>
@@ -7523,13 +7529,13 @@
         <v>125</v>
       </c>
       <c r="X52" s="29" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Y52" s="29" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Z52" s="29" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA52" s="29">
         <v>1095</v>
@@ -7546,10 +7552,10 @@
       <c r="AE52" s="29"/>
       <c r="AF52" s="29"/>
       <c r="AG52" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH52" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AI52" s="29" t="s">
         <v>115</v>
@@ -7567,7 +7573,7 @@
         <v>131</v>
       </c>
       <c r="AN52" s="29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO52" s="29"/>
       <c r="AP52" s="29"/>
@@ -7585,31 +7591,31 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G53" s="13">
         <v>2014</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L53" s="13"/>
       <c r="M53" s="13" t="s">
@@ -7619,7 +7625,7 @@
         <v>85</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P53" s="13" t="s">
         <v>87</v>
@@ -7641,7 +7647,7 @@
       <c r="AE53" s="13"/>
       <c r="AF53" s="13"/>
       <c r="AN53" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AP53" s="13"/>
     </row>
@@ -7650,31 +7656,31 @@
         <v>6700</v>
       </c>
       <c r="C54" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D54" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E54" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F54" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G54">
         <v>2017</v>
       </c>
       <c r="H54" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I54" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s">
         <v>85</v>
@@ -7683,13 +7689,13 @@
         <v>85</v>
       </c>
       <c r="O54" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P54" t="s">
         <v>87</v>
       </c>
       <c r="Q54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:49" ht="15.95" customHeight="1">
@@ -7697,22 +7703,22 @@
         <v>1828</v>
       </c>
       <c r="C55" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D55" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E55" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F55" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G55">
         <v>2013</v>
       </c>
       <c r="H55" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I55" t="s">
         <v>107</v>
@@ -7721,7 +7727,7 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s">
         <v>85</v>
@@ -7730,13 +7736,13 @@
         <v>85</v>
       </c>
       <c r="O55" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P55" t="s">
         <v>87</v>
       </c>
       <c r="Q55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:49" ht="15.95" customHeight="1">
@@ -7744,31 +7750,31 @@
         <v>1618</v>
       </c>
       <c r="C56" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D56" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E56" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F56" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G56">
         <v>2016</v>
       </c>
       <c r="H56" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I56" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J56" t="s">
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M56" t="s">
         <v>85</v>
@@ -7777,7 +7783,7 @@
         <v>85</v>
       </c>
       <c r="O56" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P56" t="s">
         <v>87</v>
@@ -7788,31 +7794,31 @@
         <v>4417</v>
       </c>
       <c r="C57" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E57" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F57" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G57">
         <v>2017</v>
       </c>
       <c r="H57" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I57" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J57" t="s">
         <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M57" t="s">
         <v>85</v>
@@ -7821,7 +7827,7 @@
         <v>85</v>
       </c>
       <c r="O57" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P57" t="s">
         <v>87</v>
@@ -7832,31 +7838,31 @@
         <v>6334</v>
       </c>
       <c r="C58" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D58" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E58" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F58" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G58">
         <v>2014</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I58" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J58" t="s">
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M58" t="s">
         <v>85</v>
@@ -7865,7 +7871,7 @@
         <v>85</v>
       </c>
       <c r="O58" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P58" t="s">
         <v>87</v>
@@ -7876,25 +7882,25 @@
         <v>5805</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D59" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E59" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F59" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G59">
         <v>2007</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I59" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J59" t="s">
         <v>46</v>
@@ -7909,7 +7915,7 @@
         <v>85</v>
       </c>
       <c r="O59" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P59" t="s">
         <v>87</v>
@@ -7920,16 +7926,16 @@
         <v>10480</v>
       </c>
       <c r="C60" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D60" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E60" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F60" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G60">
         <v>2013</v>
@@ -7941,7 +7947,7 @@
         <v>124</v>
       </c>
       <c r="K60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M60" t="s">
         <v>85</v>
@@ -7950,7 +7956,7 @@
         <v>85</v>
       </c>
       <c r="O60" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P60" t="s">
         <v>87</v>
@@ -7961,22 +7967,22 @@
         <v>5477</v>
       </c>
       <c r="C61" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D61" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E61" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F61" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G61">
         <v>2012</v>
       </c>
       <c r="H61" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I61" t="s">
         <v>45</v>
@@ -7985,7 +7991,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M61" t="s">
         <v>85</v>
@@ -7994,7 +8000,7 @@
         <v>85</v>
       </c>
       <c r="O61" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P61" t="s">
         <v>87</v>
@@ -8005,31 +8011,31 @@
         <v>10841</v>
       </c>
       <c r="C62" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D62" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E62" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F62" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G62">
         <v>2021</v>
       </c>
       <c r="H62" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>85</v>
@@ -8038,7 +8044,7 @@
         <v>85</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>87</v>
@@ -8061,31 +8067,31 @@
         <v>11021</v>
       </c>
       <c r="C63" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D63" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E63" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F63" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G63">
         <v>2014</v>
       </c>
       <c r="H63" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I63" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J63" t="s">
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>85</v>
@@ -8094,7 +8100,7 @@
         <v>85</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>87</v>
@@ -8111,7 +8117,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AN63" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:49" ht="15.95" customHeight="1">
@@ -8119,31 +8125,31 @@
         <v>7417</v>
       </c>
       <c r="C64" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D64" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E64" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F64" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G64">
         <v>2020</v>
       </c>
       <c r="H64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I64" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M64" t="s">
         <v>85</v>
@@ -8152,7 +8158,7 @@
         <v>85</v>
       </c>
       <c r="O64" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P64" t="s">
         <v>87</v>
@@ -8163,22 +8169,22 @@
         <v>1154</v>
       </c>
       <c r="C65" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D65" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E65" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F65" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G65">
         <v>2016</v>
       </c>
       <c r="H65" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I65" t="s">
         <v>45</v>
@@ -8187,7 +8193,7 @@
         <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M65" t="s">
         <v>85</v>
@@ -8196,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="O65" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P65" t="s">
         <v>87</v>
@@ -8207,31 +8213,31 @@
         <v>6914</v>
       </c>
       <c r="C66" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D66" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E66" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F66" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G66">
         <v>2016</v>
       </c>
       <c r="H66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I66" t="s">
         <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K66" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s">
         <v>85</v>
@@ -8240,13 +8246,13 @@
         <v>85</v>
       </c>
       <c r="O66" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P66" t="s">
         <v>87</v>
       </c>
       <c r="AN66" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:42" ht="15.95" customHeight="1">
@@ -8255,31 +8261,31 @@
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G67" s="13">
         <v>2016</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L67" s="13"/>
       <c r="M67" s="13" t="s">
@@ -8289,7 +8295,7 @@
         <v>85</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P67" s="13" t="s">
         <v>87</v>
@@ -8314,31 +8320,31 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G68" s="13">
         <v>2018</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J68" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L68" s="13"/>
       <c r="M68" s="13" t="s">
@@ -8348,7 +8354,7 @@
         <v>85</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P68" s="13" t="s">
         <v>87</v>
@@ -8373,31 +8379,31 @@
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G69" s="13">
         <v>2013</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J69" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L69" s="13"/>
       <c r="M69" s="13" t="s">
@@ -8407,13 +8413,13 @@
         <v>85</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P69" s="13" t="s">
         <v>87</v>
       </c>
       <c r="Q69" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R69" s="13" t="s">
         <v>88</v>
@@ -8433,7 +8439,7 @@
       <c r="AE69" s="13"/>
       <c r="AF69" s="13"/>
       <c r="AN69" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AP69" s="13"/>
     </row>
@@ -8443,31 +8449,31 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G70" s="13">
         <v>2013</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J70" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L70" s="13"/>
       <c r="M70" s="13" t="s">
@@ -8477,7 +8483,7 @@
         <v>85</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P70" s="13" t="s">
         <v>87</v>
@@ -8498,7 +8504,7 @@
       <c r="AE70" s="13"/>
       <c r="AF70" s="13"/>
       <c r="AN70" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AP70" s="13"/>
     </row>
@@ -8507,31 +8513,31 @@
         <v>3586</v>
       </c>
       <c r="C71" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D71" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E71" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F71" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G71">
         <v>2020</v>
       </c>
       <c r="H71" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I71" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J71" t="s">
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M71" t="s">
         <v>85</v>
@@ -8540,16 +8546,16 @@
         <v>85</v>
       </c>
       <c r="O71" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P71" t="s">
         <v>87</v>
       </c>
       <c r="Q71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R71" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S71" t="s">
         <v>88</v>
@@ -8560,31 +8566,31 @@
         <v>11072</v>
       </c>
       <c r="C72" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D72" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E72" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F72" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G72">
         <v>2021</v>
       </c>
       <c r="H72" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I72" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J72" t="s">
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s">
         <v>85</v>
@@ -8593,13 +8599,13 @@
         <v>85</v>
       </c>
       <c r="O72" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P72" t="s">
         <v>87</v>
       </c>
       <c r="Q72" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R72" t="s">
         <v>88</v>
@@ -8610,22 +8616,22 @@
         <v>616</v>
       </c>
       <c r="C73" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D73" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E73" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F73" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G73">
         <v>2020</v>
       </c>
       <c r="H73" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I73" t="s">
         <v>107</v>
@@ -8634,7 +8640,7 @@
         <v>58</v>
       </c>
       <c r="K73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M73" t="s">
         <v>85</v>
@@ -8643,7 +8649,7 @@
         <v>85</v>
       </c>
       <c r="O73" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P73" t="s">
         <v>87</v>
@@ -8657,25 +8663,25 @@
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D74" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E74" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F74" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G74">
         <v>2004</v>
       </c>
       <c r="H74" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J74" t="s">
         <v>58</v>
@@ -8690,7 +8696,7 @@
         <v>85</v>
       </c>
       <c r="O74" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P74" t="s">
         <v>87</v>
@@ -8704,25 +8710,25 @@
         <v>1779</v>
       </c>
       <c r="C75" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D75" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E75" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F75" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G75">
         <v>2014</v>
       </c>
       <c r="H75" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I75" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J75" t="s">
         <v>58</v>
@@ -8737,7 +8743,7 @@
         <v>85</v>
       </c>
       <c r="O75" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P75" t="s">
         <v>87</v>
@@ -8751,25 +8757,25 @@
         <v>7308</v>
       </c>
       <c r="C76" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D76" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E76" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F76" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G76">
         <v>2019</v>
       </c>
       <c r="H76" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I76" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J76" t="s">
         <v>58</v>
@@ -8784,13 +8790,13 @@
         <v>85</v>
       </c>
       <c r="O76" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P76" t="s">
         <v>87</v>
       </c>
       <c r="Q76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:42" ht="15.95" customHeight="1">
@@ -8798,31 +8804,31 @@
         <v>2434</v>
       </c>
       <c r="C77" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D77" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E77" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F77" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G77">
         <v>2014</v>
       </c>
       <c r="H77" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J77" t="s">
         <v>58</v>
       </c>
       <c r="K77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M77" t="s">
         <v>85</v>
@@ -8831,13 +8837,13 @@
         <v>85</v>
       </c>
       <c r="O77" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P77" t="s">
         <v>87</v>
       </c>
       <c r="Q77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:42" ht="15.95" customHeight="1">
@@ -8846,25 +8852,25 @@
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G78" s="8">
         <v>2017</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>58</v>
@@ -8880,13 +8886,13 @@
         <v>85</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P78" s="8" t="s">
         <v>87</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
@@ -8906,31 +8912,31 @@
         <v>1867</v>
       </c>
       <c r="C79" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D79" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E79" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F79" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G79">
         <v>2018</v>
       </c>
       <c r="H79" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I79" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J79" t="s">
         <v>58</v>
       </c>
       <c r="K79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M79" t="s">
         <v>85</v>
@@ -8939,13 +8945,13 @@
         <v>85</v>
       </c>
       <c r="O79" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P79" t="s">
         <v>87</v>
       </c>
       <c r="Q79" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:42" ht="15.95" customHeight="1">
@@ -8953,31 +8959,31 @@
         <v>7009</v>
       </c>
       <c r="C80" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D80" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E80" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F80" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G80">
         <v>2018</v>
       </c>
       <c r="H80" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I80" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J80" t="s">
         <v>58</v>
       </c>
       <c r="K80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M80" t="s">
         <v>85</v>
@@ -8986,7 +8992,7 @@
         <v>85</v>
       </c>
       <c r="O80" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P80" t="s">
         <v>87</v>
@@ -8997,31 +9003,31 @@
         <v>8980</v>
       </c>
       <c r="C81" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D81" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E81" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F81" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G81">
         <v>2015</v>
       </c>
       <c r="H81" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J81" t="s">
         <v>58</v>
       </c>
       <c r="K81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M81" t="s">
         <v>85</v>
@@ -9030,7 +9036,7 @@
         <v>85</v>
       </c>
       <c r="O81" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P81" t="s">
         <v>87</v>
@@ -9041,28 +9047,28 @@
         <v>5004</v>
       </c>
       <c r="C82" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D82" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E82" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F82" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G82">
         <v>2020</v>
       </c>
       <c r="H82" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I82" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K82" t="s">
         <v>48</v>
@@ -9074,7 +9080,7 @@
         <v>85</v>
       </c>
       <c r="O82" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P82" t="s">
         <v>87</v>
@@ -9085,28 +9091,28 @@
         <v>9198</v>
       </c>
       <c r="C83" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D83" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E83" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F83" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G83">
         <v>2020</v>
       </c>
       <c r="H83" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I83" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K83" t="s">
         <v>48</v>
@@ -9118,7 +9124,7 @@
         <v>85</v>
       </c>
       <c r="O83" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P83" t="s">
         <v>87</v>
@@ -9129,22 +9135,22 @@
         <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D84" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E84" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F84" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G84">
         <v>2014</v>
       </c>
       <c r="H84" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="I84" t="s">
         <v>107</v>
@@ -9153,7 +9159,7 @@
         <v>58</v>
       </c>
       <c r="K84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M84" t="s">
         <v>85</v>
@@ -9162,13 +9168,13 @@
         <v>85</v>
       </c>
       <c r="O84" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P84" t="s">
         <v>87</v>
       </c>
       <c r="AN84" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="85" spans="1:49" ht="15.95" customHeight="1">
@@ -9176,31 +9182,31 @@
         <v>841</v>
       </c>
       <c r="C85" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D85" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E85" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F85" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G85">
         <v>2020</v>
       </c>
       <c r="H85" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I85" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J85" t="s">
         <v>58</v>
       </c>
       <c r="K85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M85" t="s">
         <v>85</v>
@@ -9209,7 +9215,7 @@
         <v>85</v>
       </c>
       <c r="O85" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P85" t="s">
         <v>87</v>
@@ -9220,31 +9226,31 @@
         <v>2875</v>
       </c>
       <c r="C86" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D86" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E86" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F86" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G86">
         <v>2019</v>
       </c>
       <c r="H86" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I86" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J86" t="s">
         <v>58</v>
       </c>
       <c r="K86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M86" t="s">
         <v>85</v>
@@ -9253,7 +9259,7 @@
         <v>85</v>
       </c>
       <c r="O86" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P86" t="s">
         <v>87</v>
@@ -9264,31 +9270,31 @@
         <v>3127</v>
       </c>
       <c r="C87" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D87" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E87" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F87" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G87">
         <v>2006</v>
       </c>
       <c r="H87" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="I87" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J87" t="s">
         <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M87" t="s">
         <v>85</v>
@@ -9297,7 +9303,7 @@
         <v>85</v>
       </c>
       <c r="O87" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P87" t="s">
         <v>87</v>
@@ -9308,31 +9314,31 @@
         <v>7447</v>
       </c>
       <c r="C88" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D88" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E88" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F88" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G88">
         <v>2018</v>
       </c>
       <c r="H88" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J88" t="s">
         <v>58</v>
       </c>
       <c r="K88" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M88" t="s">
         <v>85</v>
@@ -9341,7 +9347,7 @@
         <v>85</v>
       </c>
       <c r="O88" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P88" t="s">
         <v>87</v>
@@ -9352,31 +9358,31 @@
         <v>9616</v>
       </c>
       <c r="C89" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D89" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E89" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F89" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G89">
         <v>2006</v>
       </c>
       <c r="H89" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J89" t="s">
         <v>58</v>
       </c>
       <c r="K89" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M89" t="s">
         <v>85</v>
@@ -9385,13 +9391,13 @@
         <v>85</v>
       </c>
       <c r="O89" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P89" t="s">
         <v>87</v>
       </c>
       <c r="AN89" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="90" spans="1:49" ht="15.95" customHeight="1">
@@ -9400,22 +9406,22 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G90" s="13">
         <v>2014</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>45</v>
@@ -9424,7 +9430,7 @@
         <v>151</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L90" s="13"/>
       <c r="M90" s="13" t="s">
@@ -9434,7 +9440,7 @@
         <v>85</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P90" s="13" t="s">
         <v>87</v>
@@ -9463,7 +9469,7 @@
       <c r="AL90" s="13"/>
       <c r="AM90" s="13"/>
       <c r="AN90" s="13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AO90" s="13"/>
       <c r="AP90" s="13"/>
@@ -9477,31 +9483,31 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G91" s="13">
         <v>2019</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J91" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L91" s="13"/>
       <c r="M91" s="13" t="s">
@@ -9511,13 +9517,13 @@
         <v>85</v>
       </c>
       <c r="O91" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P91" s="13" t="s">
         <v>87</v>
       </c>
       <c r="Q91" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
@@ -9558,22 +9564,22 @@
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G92" s="13">
         <v>2016</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>45</v>
@@ -9582,7 +9588,7 @@
         <v>58</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L92" s="13"/>
       <c r="M92" s="13" t="s">
@@ -9592,7 +9598,7 @@
         <v>85</v>
       </c>
       <c r="O92" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P92" s="13" t="s">
         <v>87</v>
@@ -9621,7 +9627,7 @@
       <c r="AL92" s="13"/>
       <c r="AM92" s="13"/>
       <c r="AN92" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AO92" s="13"/>
       <c r="AP92" s="13"/>
@@ -9635,31 +9641,31 @@
         <v>7192</v>
       </c>
       <c r="C93" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D93" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E93" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F93" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G93">
         <v>2011</v>
       </c>
       <c r="H93" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J93" t="s">
         <v>58</v>
       </c>
       <c r="K93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M93" t="s">
         <v>85</v>
@@ -9668,7 +9674,7 @@
         <v>85</v>
       </c>
       <c r="O93" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P93" t="s">
         <v>87</v>
@@ -9679,31 +9685,31 @@
         <v>4252</v>
       </c>
       <c r="C94" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D94" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E94" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F94" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G94">
         <v>2020</v>
       </c>
       <c r="H94" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I94" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J94" t="s">
         <v>58</v>
       </c>
       <c r="K94" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M94" t="s">
         <v>85</v>
@@ -9718,13 +9724,13 @@
         <v>88</v>
       </c>
       <c r="Q94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R94" t="s">
         <v>87</v>
       </c>
       <c r="S94" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:49" ht="15.95" customHeight="1">
@@ -9733,16 +9739,16 @@
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G95" s="13">
         <v>2014</v>
@@ -9752,7 +9758,7 @@
         <v>57</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K95" s="13" t="s">
         <v>47</v>
@@ -9771,13 +9777,13 @@
         <v>88</v>
       </c>
       <c r="Q95" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R95" s="13" t="s">
         <v>87</v>
       </c>
       <c r="S95" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T95" s="13"/>
       <c r="U95" s="13"/>
@@ -9795,28 +9801,28 @@
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G96" s="13">
         <v>2015</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>47</v>
@@ -9835,7 +9841,7 @@
         <v>88</v>
       </c>
       <c r="Q96" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R96" s="13" t="s">
         <v>87</v>
@@ -9855,31 +9861,31 @@
         <v>7207</v>
       </c>
       <c r="C97" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D97" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E97" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F97" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G97">
         <v>2018</v>
       </c>
       <c r="H97" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J97" t="s">
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M97" t="s">
         <v>85</v>
@@ -9894,7 +9900,7 @@
         <v>88</v>
       </c>
       <c r="Q97" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R97" t="s">
         <v>87</v>
@@ -9905,22 +9911,22 @@
         <v>1716</v>
       </c>
       <c r="C98" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D98" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E98" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F98" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G98">
         <v>2013</v>
       </c>
       <c r="H98" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I98" t="s">
         <v>45</v>
@@ -9944,7 +9950,7 @@
         <v>88</v>
       </c>
       <c r="Q98" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R98" t="s">
         <v>87</v>
@@ -9955,31 +9961,31 @@
         <v>8743</v>
       </c>
       <c r="C99" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D99" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E99" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G99">
         <v>2013</v>
       </c>
       <c r="H99" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I99" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J99" t="s">
         <v>124</v>
       </c>
       <c r="K99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M99" t="s">
         <v>85</v>
@@ -10002,25 +10008,25 @@
         <v>3297</v>
       </c>
       <c r="C100" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D100" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E100" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F100" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G100">
         <v>2018</v>
       </c>
       <c r="H100" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I100" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J100" t="s">
         <v>58</v>
@@ -10049,31 +10055,31 @@
         <v>10118</v>
       </c>
       <c r="C101" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D101" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E101" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F101" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G101">
         <v>2017</v>
       </c>
       <c r="H101" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I101" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J101" t="s">
         <v>58</v>
       </c>
       <c r="K101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M101" t="s">
         <v>85</v>
@@ -10097,31 +10103,31 @@
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G102" s="9">
         <v>2017</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>47</v>
@@ -10136,10 +10142,10 @@
         <v>86</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R102" s="9" t="s">
         <v>88</v>
@@ -10152,19 +10158,19 @@
         <v>90</v>
       </c>
       <c r="V102" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="W102" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="X102" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y102" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Z102" s="9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AA102" s="9">
         <f>6*365</f>
@@ -10174,13 +10180,13 @@
         <v>113</v>
       </c>
       <c r="AC102" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AD102" s="9" t="s">
         <v>68</v>
       </c>
       <c r="AE102" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF102" s="9" t="s">
         <v>69</v>
@@ -10191,17 +10197,17 @@
       </c>
       <c r="AI102" s="9"/>
       <c r="AJ102" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK102" s="9" t="s">
         <v>167</v>
       </c>
       <c r="AL102" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AM102" s="9"/>
       <c r="AN102" s="9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="15.95" customHeight="1">
@@ -10209,22 +10215,22 @@
         <v>11061</v>
       </c>
       <c r="C103" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D103" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E103" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F103" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G103">
         <v>2007</v>
       </c>
       <c r="H103" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I103" t="s">
         <v>45</v>
@@ -10245,13 +10251,13 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q103" t="s">
         <v>87</v>
       </c>
       <c r="AN103" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="15.95" customHeight="1">
@@ -10259,31 +10265,31 @@
         <v>3325</v>
       </c>
       <c r="C104" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D104" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E104" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F104" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G104">
         <v>2012</v>
       </c>
       <c r="H104" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I104" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J104" t="s">
         <v>151</v>
       </c>
       <c r="K104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M104" t="s">
         <v>85</v>
@@ -10295,7 +10301,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q104" t="s">
         <v>87</v>
@@ -10306,31 +10312,31 @@
         <v>626</v>
       </c>
       <c r="C105" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D105" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E105" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F105" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G105">
         <v>2016</v>
       </c>
       <c r="H105" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J105" t="s">
         <v>46</v>
       </c>
       <c r="K105" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M105" t="s">
         <v>85</v>
@@ -10342,7 +10348,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q105" t="s">
         <v>87</v>
@@ -10353,28 +10359,28 @@
         <v>3603</v>
       </c>
       <c r="C106" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D106" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E106" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F106" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G106">
         <v>2018</v>
       </c>
       <c r="H106" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="I106" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J106" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="K106" t="s">
         <v>84</v>
@@ -10389,7 +10395,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q106" t="s">
         <v>87</v>
@@ -10400,28 +10406,28 @@
         <v>8400</v>
       </c>
       <c r="C107" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D107" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E107" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F107" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G107">
         <v>2003</v>
       </c>
       <c r="H107" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="I107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J107" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K107" t="s">
         <v>84</v>
@@ -10436,7 +10442,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q107" t="s">
         <v>87</v>
@@ -10447,22 +10453,22 @@
         <v>191</v>
       </c>
       <c r="C108" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D108" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E108" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F108" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G108">
         <v>2018</v>
       </c>
       <c r="H108" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I108" t="s">
         <v>107</v>
@@ -10471,7 +10477,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M108" t="s">
         <v>85</v>
@@ -10483,7 +10489,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q108" t="s">
         <v>87</v>
@@ -10495,22 +10501,22 @@
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G109" s="8">
         <v>2019</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>45</v>
@@ -10532,7 +10538,7 @@
         <v>86</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q109" s="8" t="s">
         <v>87</v>
@@ -10567,23 +10573,23 @@
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G110" s="13">
         <v>2002</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J110" s="13" t="s">
         <v>58</v>
@@ -10602,7 +10608,7 @@
         <v>86</v>
       </c>
       <c r="P110" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q110" s="13" t="s">
         <v>87</v>
@@ -10624,25 +10630,25 @@
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G111" s="13">
         <v>2020</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J111" s="13" t="s">
         <v>46</v>
@@ -10658,10 +10664,10 @@
         <v>85</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P111" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q111" s="13" t="s">
         <v>88</v>
@@ -10684,31 +10690,31 @@
         <v>8572</v>
       </c>
       <c r="C112" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D112" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E112" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F112" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G112">
         <v>2010</v>
       </c>
       <c r="H112" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J112" t="s">
         <v>58</v>
       </c>
       <c r="K112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M112" t="s">
         <v>85</v>
@@ -10717,10 +10723,10 @@
         <v>85</v>
       </c>
       <c r="O112" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P112" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q112" t="s">
         <v>87</v>
@@ -10732,25 +10738,25 @@
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G113" s="13">
         <v>2004</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J113" s="13" t="s">
         <v>58</v>
@@ -10766,10 +10772,10 @@
         <v>85</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P113" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q113" s="13" t="s">
         <v>87</v>
@@ -10790,25 +10796,25 @@
         <v>2418</v>
       </c>
       <c r="C114" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D114" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E114" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F114" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G114">
         <v>2019</v>
       </c>
       <c r="H114" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I114" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J114" t="s">
         <v>46</v>
@@ -10826,13 +10832,13 @@
         <v>86</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>88</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>87</v>
@@ -10844,22 +10850,22 @@
         <v>2091</v>
       </c>
       <c r="C115" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D115" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E115" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F115" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G115">
         <v>2012</v>
       </c>
       <c r="H115" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I115" t="s">
         <v>107</v>
@@ -10880,7 +10886,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q115" t="s">
         <v>87</v>
@@ -10891,31 +10897,31 @@
         <v>7816</v>
       </c>
       <c r="C116" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D116" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E116" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F116" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G116">
         <v>2012</v>
       </c>
       <c r="H116" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="I116" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="J116" t="s">
         <v>46</v>
       </c>
       <c r="K116" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M116" t="s">
         <v>85</v>
@@ -10924,10 +10930,10 @@
         <v>85</v>
       </c>
       <c r="O116" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P116" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q116" t="s">
         <v>87</v>
@@ -10941,31 +10947,31 @@
         <v>10759</v>
       </c>
       <c r="C117" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D117" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E117" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F117" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G117">
         <v>2020</v>
       </c>
       <c r="H117" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="I117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J117" t="s">
         <v>124</v>
       </c>
       <c r="K117" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M117" t="s">
         <v>85</v>
@@ -10974,10 +10980,10 @@
         <v>85</v>
       </c>
       <c r="O117" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P117" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q117" t="s">
         <v>87</v>
@@ -10989,22 +10995,22 @@
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G118" s="9">
         <v>2013</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>45</v>
@@ -11013,10 +11019,10 @@
         <v>46</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M118" s="9" t="s">
         <v>85</v>
@@ -11028,10 +11034,10 @@
         <v>86</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R118" s="9" t="s">
         <v>88</v>
@@ -11044,19 +11050,19 @@
         <v>138</v>
       </c>
       <c r="V118" s="9" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="W118" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="X118" s="9" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="Y118" s="9" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="Z118" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AA118" s="9">
         <v>365</v>
@@ -11068,7 +11074,7 @@
         <v>114</v>
       </c>
       <c r="AD118" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE118" s="9"/>
       <c r="AF118" s="9"/>
@@ -11081,16 +11087,16 @@
       <c r="AI118" s="9"/>
       <c r="AJ118" s="9"/>
       <c r="AK118" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AL118" s="9" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AM118" s="9" t="s">
         <v>131</v>
       </c>
       <c r="AN118" s="9" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="119" spans="1:48" ht="15">
@@ -11099,31 +11105,31 @@
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G119" s="13">
         <v>2014</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J119" s="13" t="s">
         <v>151</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L119" s="13"/>
       <c r="M119" s="13" t="s">
@@ -11161,22 +11167,22 @@
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G120" s="13">
         <v>2019</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I120" s="13" t="s">
         <v>107</v>
@@ -11204,7 +11210,7 @@
         <v>87</v>
       </c>
       <c r="R120" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S120" s="13"/>
       <c r="T120" s="13"/>
@@ -11227,31 +11233,31 @@
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G121" s="13">
         <v>2013</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="J121" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L121" s="13"/>
       <c r="M121" s="13" t="s">
@@ -11264,10 +11270,10 @@
         <v>86</v>
       </c>
       <c r="P121" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q121" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R121" s="13" t="s">
         <v>87</v>
@@ -11294,7 +11300,7 @@
       <c r="AL121" s="13"/>
       <c r="AM121" s="13"/>
       <c r="AN121" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO121" s="13"/>
       <c r="AP121" s="13"/>
@@ -11311,46 +11317,46 @@
       </c>
       <c r="B122" s="32"/>
       <c r="C122" s="32" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F122" s="32" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G122" s="32">
         <v>2020</v>
       </c>
       <c r="H122" s="32" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="I122" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J122" s="32" t="s">
         <v>46</v>
       </c>
       <c r="K122" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L122" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M122" s="32" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="32" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O122" s="32" t="s">
         <v>86</v>
       </c>
       <c r="P122" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q122" s="32" t="s">
         <v>87</v>
@@ -11365,16 +11371,16 @@
         <v>158</v>
       </c>
       <c r="W122" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X122" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y122" s="32" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Z122" s="32" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AA122" s="32">
         <v>912</v>
@@ -11389,7 +11395,7 @@
         <v>164</v>
       </c>
       <c r="AE122" s="32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF122" s="32" t="s">
         <v>69</v>
@@ -11401,22 +11407,22 @@
         <v>97</v>
       </c>
       <c r="AI122" s="32" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AJ122" s="32" t="s">
         <v>166</v>
       </c>
       <c r="AK122" s="32" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AL122" s="32" t="s">
         <v>117</v>
       </c>
       <c r="AM122" s="32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN122" s="32" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AR122" s="33"/>
       <c r="AS122" s="33"/>
@@ -11427,22 +11433,22 @@
       </c>
       <c r="B123" s="13"/>
       <c r="C123" s="13" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G123" s="13">
         <v>2017</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I123" s="13" t="s">
         <v>83</v>
@@ -11451,10 +11457,10 @@
         <v>58</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M123" s="13" t="s">
         <v>85</v>
@@ -11466,13 +11472,13 @@
         <v>86</v>
       </c>
       <c r="P123" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q123" s="13" t="s">
         <v>88</v>
       </c>
       <c r="R123" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S123" s="13" t="s">
         <v>87</v>
@@ -11703,7 +11709,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>20</v>
@@ -11715,7 +11721,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>32</v>
@@ -11727,13 +11733,13 @@
         <v>34</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -11763,10 +11769,10 @@
         <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>143</v>
@@ -11775,13 +11781,13 @@
         <v>178</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>117</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>137</v>
@@ -11793,10 +11799,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>88</v>
@@ -11817,7 +11823,7 @@
         <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>165</v>
@@ -11826,7 +11832,7 @@
         <v>166</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>131</v>
@@ -11839,13 +11845,13 @@
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
@@ -11853,7 +11859,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
@@ -11863,10 +11869,10 @@
         <v>115</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>118</v>
@@ -11877,11 +11883,11 @@
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>51</v>
@@ -11893,19 +11899,19 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -11913,7 +11919,7 @@
     <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -11921,21 +11927,21 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="6"/>
@@ -11943,7 +11949,7 @@
     <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -11959,13 +11965,13 @@
         <v>98</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="6"/>
@@ -11989,13 +11995,13 @@
         <v>144</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="6"/>
@@ -12003,7 +12009,7 @@
     <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12011,18 +12017,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="12" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="6"/>
@@ -12031,7 +12037,7 @@
     <row r="10" spans="1:16" ht="31.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -12046,7 +12052,7 @@
         <v>129</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -12055,7 +12061,7 @@
     <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -12067,7 +12073,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -12077,7 +12083,7 @@
     <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -12089,7 +12095,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -12099,7 +12105,7 @@
     <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
